--- a/doc/ART菜单页面映射关系.xlsx
+++ b/doc/ART菜单页面映射关系.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作分解" sheetId="1" r:id="rId1"/>
+    <sheet name="当前展览" sheetId="4" r:id="rId2"/>
+    <sheet name="回顾详情" sheetId="3" r:id="rId3"/>
+    <sheet name="新闻动态正文" sheetId="2" r:id="rId4"/>
+    <sheet name="YAM Store详情" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>新闻动态列表</t>
     <rPh sb="0" eb="1">
@@ -321,6 +325,201 @@
   </si>
   <si>
     <t>exhibitionNow.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAM Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAM Store详情</t>
+    <rPh sb="9" eb="10">
+      <t>xiang'qing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sticky Monster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">胶囊u盘(8G) Capsule U Disk胶囊u盘(8G) Capsule U Disk胶囊u盘(8G) Capsule U </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAM Store 推荐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以复古和军旅风格为灵感，Mismo创造了这款灵活、多变的背包。标志性Mismo身形和剪影，很自然地使人联想到一次背上行囊远走高飞的出逃。皮质双肩带和手工打造的五金配饰环环相扣，有如唤醒你的DNA，背上它，在城市之间自由穿梭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌简介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mismo在西班牙语中意为“自己的”、“相似的”，这也是丹麦新晋背包品牌Mismo希望每一位使用Mismo背包的客人都能找到自我的心愿。外形简约却功能性十足，尤其擅长包袋的优化设计，Mismo将现代人对于快节奏、高品质生活的诉求运用在每一款实用的背包上。无论是旅行还是日常通勤，Mismo背包都有用武之地。 </t>
+  </si>
+  <si>
+    <t>第一张图片下面的文字</t>
+    <rPh sb="0" eb="1">
+      <t>di'yi'zhanng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tu'p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia'm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年1月22日（周五）下午4点，展览“焕象”于央美术馆开幕。“焕象”是央美术馆团队组建以来第一次由展览部策划，结合美术馆的发展方向和气质希望能为观众带来小众而又有亲和力的参展体验。 
+“ 我不知道为什么这些图形会出现在这里，而不是那些。一切都只是引子，我选择那些陌生或熟悉交织在一起的形，看它们在随意的逻辑中相遇，我会在哪里转折,又会在哪里喊停，所有这一切从最初的基础开始，被我一遍遍的记录下来，又不断地推倒重来,当我不断打磨它们时，最终会呈现出来一种新的非常确定的面貌，过程中的一切都是自由的，它们慢慢成长……材料的特性和我的劳动使它确立，最后看到的是含混的趣味、混乱的思考和总是含蓄的安静的品位。 
+既然思考只能引上帝发笑，那就随意吧，是为自由。” 
+——闫博 
+闫博这种通过物质材料的处理创造新形式的思路，涉及的原则强度与他对个性中的某些方面的抑制有关。在许多青年艺术家那里，个性被理解为张扬与没有节制，但是闫博的作品并没有受到当代艺术中的时尚潮流的影响，包含着一种陌生的审美，追求一种平衡和谐的感觉，静静地散发出一种古典的气息。像他这样手法严谨和专心致志的画家，每一点新的探索都与他对精神空间的关注和心理体验的扩展保持关联。 在闫博的作品中，色彩的提纯与简化用来表现一种不涉及日常情感的主题性表达，其意图是主观性的，但采用的方法是强烈的反自然主义的。这些清晰的色彩使他的绘画获得了整体构图的抽象与具象符号之间的平衡。他的作品中的形象作为一种符号，保持了现实物象的轮廓，但更多地是作为一种色彩的区域划分，作为一种抽象的构图元素，呈现出现实中所没有的视觉意味。 
+——殷双喜 
+站在闫博的新作《硄愔》系列之前，会发现理性的追问显得苍白而冰冷，画面却真实而温暖。在矿物颜色等混合材质的层层堆叠和打磨后，画面凝固为具有一定厚度的坚实体，点线痕迹从画底滋生，表层细密光莹，在手工的打磨下不失自然的润洁，犹如覆罩了一层薄薄的釉质，或敦厚或稚拙、或斑白剥落，细微处显露着不假雕琢的质朴和沉厚，生长与消磨的印记，“如玉”而空灵的视觉美感，逃避了一眼看穿的意义，以“通感”的方式撩拨起触摸的欲望，材质获得了生命，超越了观念的制约、图像的束缚，我们从而获得与作品共同呼吸的心灵安顿。闫博这样解释，“硄愔”（guang yin）正如其谐音“光阴”，是时间对一切的穿越，是生命的不能与希望，如何以艺术的方式呈现生活的变化及其态度是他所希望的。静止的平面绘画在捕捉转瞬即逝的“光阴”，哪怕它潜藏在画面的每一个角落，只要用物质的空间去占有它，用心灵的温度去感知它，它终会显现，于是，他找到“发光的石头”，在不断地磨砺的过程中得到安宁与和悦。这样的解说听来难免穿凿附会，有些虚妄，但时空本是同构，心物无法分离，《硄愔》系列带给我们的正是似幻实真的新奇的真实感受。
+ ——邓 锋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二张图片下面的文字</t>
+    <rPh sb="0" eb="1">
+      <t>di'er'zhang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tu'p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia'm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年1月22日（周五）下午4点，展览“焕象”于央美术馆开幕。“焕象”是央美术馆团队组建以来第一次由展览部策划，结合美术馆的发展方向和气质希望能为观众带来小众而又有亲和力的参展体验。 
+“ 我不知道为什么这些图形会出现在这里，而不是那些。一切都只是引子，我选择那些陌生或熟悉交织在一起的形，看它们在随意的逻辑中相遇，我会在哪里转折,又会在哪里喊停，所有这一切从最初的基础开始，被我一遍遍的记录下来，又不断地推倒重来,当我不断打磨它们时，最终会呈现出来一种新的非常确定的面貌，过程中的一切都是自由的，它们慢慢成长……材料的特性和我的劳动使它确立，最后看到的是含混的趣味、混乱的思考和总是含蓄的安静的品位。 
+既然思考只能引上帝发笑，那就随意吧，是为自由。” 
+——闫博 
+闫博这种通过物质材料的处理创造新形式的思路，涉及的原则强度与他对个性中的某些方面的抑制有关。在许多青年艺术家那里，个性被理解为张扬与没有节制，但是闫博的作品并没有受到当代艺术中的时尚潮流的影响，包含着一种陌生的审美，追求一种平衡和谐的感觉，静静地散发出一种古典的气息。像他这样手法严谨和专心致志的画家，每一点新的探索都与他对精神空间的关注和心理体验的扩展保持关联。 在闫博的作品中，色彩的提纯与简化用来表现一种不涉及日常情感的主题性表达，其意图是主观性的，但采用的方法是强烈的反自然主义的。这些清晰的色彩使他的绘画获得了整体构图的抽象与具象符号之间的平衡。他的作品中的形象作为一种符号，保持了现实物象的轮廓，但更多地是作为一种色彩的区域划分，作为一种抽象的构图元素，呈现出现实中所没有的视觉意味。 
+——殷双喜 
+站在闫博的新作《硄愔》系列之前，会发现理性的追问显得苍白而冰冷，画面却真实而温暖。在矿物颜色等混合材质的层层堆叠和打磨后，画面凝固为具有一定厚度的坚实体，点线痕迹从画底滋生，表层细密光莹，在手工的打磨下不失自然的润洁，犹如覆罩了一层薄薄的釉质，或敦厚或稚拙、或斑白剥落，细微处显露着不假雕琢的质朴和沉厚，生长与消磨的印记，“如玉”而空灵的视觉美感，逃避了一眼看穿的意义，以“通感”的方式撩拨起触摸的欲望，材质获得了生命，超越了观念的制约、图像的束缚，我们从而获得与作品共同呼吸的心灵安顿。闫博这样解释，“硄愔”（guang yin）正如其谐音“光阴”，是时间对一切的穿越，是生命的不能与希望，如何以艺术的方式呈现生活的变化及其态度是他所希望的。静止的平面绘画在捕捉转瞬即逝的“光阴”，哪怕它潜藏在画面的每一个角落，只要用物质的空间去占有它，用心灵的温度去感知它，它终会显现，于是，他找到“发光的石头”，在不断地磨砺的过程中得到安宁与和悦。这样的解说听来难免穿凿附会，有些虚妄，但时空本是同构，心物无法分离，《硄愔》系列带给我们的正是似幻实真的新奇的真实感受。
+ ——邓 锋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青苔上身</t>
+  </si>
+  <si>
+    <t>手绘团扇儿童艺术工作坊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团扇又称纨扇、合欢扇得名于西汉班婕妤的诗句“裁为合欢扇，团圆似月明”是中国古代传统工艺品及艺术品扇子不仅可以承载传统文化、展现古代诗画之美也可以生动活泼、充满现代设计本期公教活动将从孩子的视角出发设计手绘一把属于自己的团扇作品把夏季的色彩、花卉、植物绘进扇子中让生活中的一事一物都变得灵动有温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.11.12 ／15:00-17:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workshop details</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作坊详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【活动时间】：2016 年6 月25 日（周六）下午15:00-17:00 
+【活动流程】： 1. 欣赏传统团扇以及夏季花卉植物的美术作品 
+                      2. 了解绘制团扇所需要用到的材料与扇面的材质，发放材料 
+                      3. 引导孩子们去认识与感知夏季的色彩与孩子们交流扇面设计的构图并引导孩子们设计团扇的主题与色彩。 
+                      4. 创作时间，老师在小朋友周围进行个别指点与帮助。 
+                      5. 作品展示，集体合影。 
+【创作材料】：绢质团扇、毛笔（大白云）、墨汁、国画颜料 
+【招募对象】：四岁以上儿童（家长如需陪伴限一人）15 人 
+【报名费用】：188 元/人 (包含展览门票88元)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖项设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次工作坊特别设立人气奖3名，所有参与活动的儿童作品将在下期微信平台中发起公众投票，人气最高的前三名将获得美术馆准备的精美礼物，包含：当前展览门票一张（88元）+ YAM Store绘本一套。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exhibition Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期工作坊老师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹阳：森林小畵房创办人+主理人，毕业于北京服装学院，曾举办个展“花时了”、“小森林.小世界”，从事儿童美术教育7年，深入研究与创造儿童艺术教育，儿童与艺术之间的关系。
+森林小画房：坐落于北京798艺术区，崇尚自然美好的教育环境和美学生活方式，专注于儿童美育的培养，主张“真实、纯粹、自然，用艺术释放童心”的教育理念，开放式无拘无束的表达，为孩子们建立一所艺术世界的精神花园。工作室目前开设有儿童艺术课程、艺术鉴赏、传统手工艺、艺术实验室、艺术下午茶、自然教育—景德镇陶艺游学、原创陶瓷设计产品设计。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博洛尼亚插画展 中国巡展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bologna - Chinese illustration Exhibition Tour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.31 - 2016.07.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- meet the world's most beautiful illustrations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 巧遇全球最美插画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibition introduction
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>展览介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主办方：意大利博洛尼亚展会 意大利博洛尼亚少儿书展 国家图书馆 蒲公英童书馆 牛牛文化 
+协办方：央美术馆 视觉中国 北京脑洞创想儿童文化传播有限公司 
+支持方：意大利驻中国大使馆 北京中国童书博览会 
+展期：2016.05.31-07.27 
+央美术馆一直致力于为公众带来具有国际影响力的展览项目，我们很荣幸地告知大家，“博洛尼亚插画展·中国巡展——巧遇全球最美插画”将于2016年5月31日－7月28日亮相央美术馆。我们为此次展览破例延长闭馆时间（周二－周日10：00－21：00），我们希望大家在央美术馆感受到全球最美插画的魅力所在，与国际知名的插画大师近距离交流，在展览现场发挥自己的创作才华。 
+博洛尼亚插画展 被誉为插画界的“奥斯卡” 50年来 第一次进入中国大陆 本次中国巡展首站将落地 央美术馆 5月31日盛大向公众开放 展览期间 央美术馆将举办国际插画艺术高端论坛 获奖者、组委会评委、创作者 出版人和艺术研究者等 一起探讨 插画与艺术教育 插画与跨界应用 插画与儿童出版 等相关议题 打开一扇窗看见全世界 巧遇全球最美插画 这是意大利博洛尼亚童书展 博洛尼亚插画展组委会 官方授权的艺术盛宴 中国 是意大利之外 全球第二个举办这一展览的国家 博洛尼亚 意大利最古老的城市 每个来到博洛尼亚的人 都会惊叹这里 文艺复兴时期的宫殿 与巴洛克艺术的古迹 还有始建于1088年 被誉为“大学之母”的 博洛尼亚大学 每年四月 来自世界各地的 儿童图书出版人 创作者、研究者 儿童从业者、儿童教育者等 都会来到这迷人的老城 为这场关于书的聚会博洛尼亚童书展 1964年创办至今已举办53届 是国际上规模最大的童书展 2016年 博洛尼亚童书展传来喜讯 中国儿童文学作家曹文轩 获得国际安徒生文学奖 引来更多中国人关注 1967年 第三届博洛尼亚童书展 创办了博洛尼亚插画展 独特的审美取向 专业的评选眼光 成就了插画界“奥斯卡”的地位 在过去的半个世纪里 博洛尼亚插画展 成为具有国际水准的 插画合作与交流平台 也为全世界的插画家们 营造独特的集会场所 悠久的历史积淀 使之与童书展一样 成为一个非凡的盛会 即将开启的中国巡展 北京站后还将在上海、深圳、成都、济南和西安五个城市展开为期一年的巡展 这些来自世界的最美插画 届时将有全球70多位著名插画家的 384幅获奖作品参展</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -376,6 +575,35 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -451,7 +679,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +710,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -764,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -952,10 +1216,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
@@ -971,40 +1237,262 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="98.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="45" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112" style="13" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="84" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="147" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="183" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="336" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="336" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.5" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="84" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>